--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_48.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_48.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Naoto Sato</t>
+          <t>Satomi Murakami</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
